--- a/biology/Zoologie/Batodonoides/Batodonoides.xlsx
+++ b/biology/Zoologie/Batodonoides/Batodonoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Batodonoides powayensis
 Batodonoides est un genre fossile de petits mammifères insectivores, qui vivaient en Amérique du Nord il y a  53 à 42 millions d'années, à l'Éocène. Ce genre appartient à la famille, également fossile, des Geolabididae (en).
@@ -512,21 +524,92 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batodonoides powayensis Novacek, 1976 - espèce type
-Batodonoides rileyi Kelly 2013[réf. nécessaire][1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Batodonoides powayensis Novacek, 1976 - espèce type
+Batodonoides rileyi Kelly 2013[réf. nécessaire]
 Batodonoides vanhouteni Bloch et al. 1998
-Batodonoides walshi Kelly 2010[2]
-Selon Paleobiology Database, en 2022, le nombre d'espèces référencées est de trois[3] :
+Batodonoides walshi Kelly 2010
+Selon Paleobiology Database, en 2022, le nombre d'espèces référencées est de trois :
 †Batodonoides powayensis Novacek, 1976 - espèce type
 †Batodonoides vanhouteni Bloch et al. 1998
-†Batodonoides walshi Kelly 2010
-Batodonoides powayensis
-Batodonoides powayensis est défini par le spécimen type UCMP (en) V-96459. Les restes fossiles retrouvés en Californie (États-Unis) indiquent que c'était un insectivore vivant dans le sol. Ils sont datés à 46,2–42 Ma (au Lutécien, dans l'Éocène moyen)[4].
-Batodonoides vanhouteni
-Batodonoides vanhouteni, découvert dans les gisements wasatchiens (en) du Wyoming (États-Unis)[5], est décrit sur la base d'un spécimen juvénile, dont il ne reste qu'une mandibule et quelques dents, datées d'environ 53 Ma (Éocène inférieur)[6].
-Sur la base de la taille de ses molaires, on estime que Batodonoides  vanhouteni pesait environ 1,3 gramme (0,93–1,82 g), ce qui en fait le plus petit mammifère connu[6].
+†Batodonoides walshi Kelly 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Batodonoides</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Batodonoides</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Batodonoides powayensis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batodonoides powayensis est défini par le spécimen type UCMP (en) V-96459. Les restes fossiles retrouvés en Californie (États-Unis) indiquent que c'était un insectivore vivant dans le sol. Ils sont datés à 46,2–42 Ma (au Lutécien, dans l'Éocène moyen).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Batodonoides</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Batodonoides</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Batodonoides vanhouteni</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batodonoides vanhouteni, découvert dans les gisements wasatchiens (en) du Wyoming (États-Unis), est décrit sur la base d'un spécimen juvénile, dont il ne reste qu'une mandibule et quelques dents, datées d'environ 53 Ma (Éocène inférieur).
+Sur la base de la taille de ses molaires, on estime que Batodonoides  vanhouteni pesait environ 1,3 gramme (0,93–1,82 g), ce qui en fait le plus petit mammifère connu.
 </t>
         </is>
       </c>
